--- a/loaded_influencer_data/georgianaalexe97/georgianaalexe97_video.xlsx
+++ b/loaded_influencer_data/georgianaalexe97/georgianaalexe97_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,46 +506,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7483939640383245590</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7489004900802710806</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>989</v>
+        <v>1555</v>
       </c>
       <c r="C2" t="n">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>let's do the challenge:@chillwithsunscreen @tinalovesskincare @Danny|UGC .
-@coxir</t>
+          <t>비용을 절약하기 위해 이 코드를 사용하십시오. 보상 코드: AGEOGIANA21 쿠폰 코드: MEGA25 = 6.04까지 20% 7.04-09 후 보상 코드: AGEOGIANA21 쿠폰 코드: 25SPRING = 20% 🎉🎉🎉💜</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>38.32153690596562</v>
+        <v>8.488745980707396</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40242669362993</v>
+        <v>8.488745980707396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>19.91911021233569</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.25783619817998</v>
+        <v>0.964630225080386</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -554,131 +553,124 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7486912720034434327</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7489475712328502550</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218</v>
+        <v>449</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>I use coxir - TXA Mucin Pore Mask Cleanser
-It deeply cleanses my pores and impurities.
-It has a pleasant texture</t>
+          <t>다알바 피에몬트 제안 투인원 제품이라 마음에 듭니다. 자외선 차단 기능을 제공하지만 메이크업에도 좋은 프라이머입니다. 한국에서 가장 많이 팔리는 자외선 차단제✨🎉 아마존에서 구할 수 ✨ @dalba_it</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>32.11009174311927</v>
+        <v>50.77951002227172</v>
       </c>
       <c r="I3" t="n">
-        <v>19.26605504587156</v>
+        <v>24.27616926503341</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12.84403669724771</v>
+        <v>26.50334075723831</v>
       </c>
       <c r="L3" t="n">
-        <v>7.79816513761468</v>
+        <v>7.349665924276169</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7486142424566238486</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7488746293750172950</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C4" t="n">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cica Mask Cleanser VT Cosmetics
-Key ingredients:
-🌿Centella Asiatica
-🌿Herbs
-🌿Retinol
-All skin type Daily Mask Cleanser 🌿✅</t>
+          <t>콜라겐 미스트로 24시간 빛나는 피부. 아마존이나 예스 스타일에서 찾을 수 있습니다. ✨ @coxir #tshcollagenmist</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>63.95147313691508</v>
+        <v>54.63917525773196</v>
       </c>
       <c r="I4" t="n">
-        <v>30.50259965337955</v>
+        <v>26.11683848797251</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.44887348353553</v>
+        <v>28.52233676975945</v>
       </c>
       <c r="L4" t="n">
-        <v>9.358752166377817</v>
+        <v>6.013745704467354</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7485808997488987414</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7488340456112147734</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>693</v>
+        <v>739</v>
       </c>
       <c r="C5" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D5" t="n">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -687,58 +679,358 @@
         <v>42</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>나는 기분 좋게 감명을 받았고 이 크림을 알아야 합니다. #drceuracleclub @Dr.Ceuracle @Dr.Ceuracle Official</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>45.06089309878214</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.51556156968877</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.54533152909337</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.683355886332882</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7488035983292632322</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>606</v>
+      </c>
+      <c r="C6" t="n">
+        <v>173</v>
+      </c>
+      <c r="D6" t="n">
+        <v>160</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>저처럼 흰 여드름이 있다면 이 제품이 도움이 될 것입니다. Centellian24 - Madeca 2X 타이트닝 앰플 패드. 🌿 피부에 부드러운 각질 제거를 제공합니다. 🌿 피부를 촉촉하고 빛나게 합니다. 쿨링 효과로 피부를 진정시키는 🌿 🌿 모공 크기를 줄이고 피부 탄력을 개선합니다. Madeca Medi 패치🌿 🌿 여드름을 치료한다💚 정말 감사합니다.😍</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>54.95049504950495</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.54785478547855</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.4026402640264</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.425742574257425</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7487644420850863382</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>626</v>
+      </c>
+      <c r="C7" t="n">
+        <v>169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>140</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>39</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✨제주에서 추출한 80%의 녹색 추출물이 함유된 이스트리 녹차 프레쉬 토너. ✨혜택: ✨모공 조절 ✨피지 케어 기름을 줄이는 ✨ ✨ 피부에 수분을 공급했습니다. 지성/콤비네이션 피부에 적합합니다. 나는 콤비네이션 스킨을 가지고 있으며 피부에 빠르게 흡수되어 촉촉한 피부를 유지합니다. 🌞 히알루론 워터 썬젤 히알루론산 8종, 센텔라 아시아티카, 세라마이드, 무화과 추출물이 함유되어 있습니다. 이점: 🌞 피부 탄력 향상 자극받은 피부를 진정시키는 🌞 끈적이지 않은 🌞 경량 포뮬러🌞 🌞 캐스트와 함께 떠나지 마 🌞 피부 장벽 강화 메이크업을 하기 전에 사용할 수 있어서 좋아요. 보습력이 뛰어나고 보호력이 좋습니다. 영재: 감사합니다:</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>49.36102236421725</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.99680511182109</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.36421725239617</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.230031948881789</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7487290729379859714</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>689</v>
+      </c>
+      <c r="C8" t="n">
+        <v>163</v>
+      </c>
+      <c r="D8" t="n">
+        <v>163</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>구아바 페이셜 트리트먼트 클렌저: ❤️혜택: ✨ 메이크업과 불순물 제거 과도한 피지를 제거하는 ✨ ✨ 피부를 빛나고 촉촉하게 만듭니다. 모든 피부 타입에 적합한 ✨ 좋고 부드러운 향과 쉽게 씻겨집니다. 이번 달 후원 상품</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>47.31494920174165</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.65747460087083</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23.65747460087083</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.386066763425253</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7486912720034434327</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>669</v>
+      </c>
+      <c r="C9" t="n">
+        <v>152</v>
+      </c>
+      <c r="D9" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>46</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>나는 coxir - TXA Mucin 모공 마스크 클렌저를 사용합니다. 모공과 불순물을 깊게 정화합니다. 쾌적한 질감을 가지고 있습니다 내 피부를 매우 부드럽고 매끄럽고 촉촉하게 만듭니다. 아마존에서 찾을 수 있습니다</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>49.62630792227205</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22.72047832585949</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.90582959641256</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.87593423019432</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7486142424566238486</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>707</v>
+      </c>
+      <c r="C10" t="n">
+        <v>205</v>
+      </c>
+      <c r="D10" t="n">
+        <v>233</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>57</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>시카 마스크 클렌저 VT 화장품 주요 성분: 🌿 🌿허브 🌿레티놀 모든 스킨 타입 데일리 마스크 클렌저🌿✅ 피부에 수분을 공급하고 진정시킵니다. 모공의 불순물 정화 과도한 각질 제거🌿✅ 자극을 주지 않고 피부를 깨끗하고 부드럽게 유지합니다. 나는 그것이 내 피부를 떠나는 것에 기분 좋게 놀랐다. 클렌징 후 몇 시간 후에 피부가 깨끗해집니다.😳🌿✅</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>61.95190947666195</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28.995756718529</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32.95615275813296</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.062234794908061</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@georgianaalexe97/video/7485808997488987414</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>693</v>
+      </c>
+      <c r="C11" t="n">
+        <v>145</v>
+      </c>
+      <c r="D11" t="n">
+        <v>145</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>7 layers challenge
 Jumiso snail mucin 95+ Peptide facil essence :
 ✅Hydrate and snoothes the skin .</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>41.84704184704185</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>20.92352092352093</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>20.92352092352093</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>6.060606060606061</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7485404182673984790</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>742</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>186</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>160</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>53</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>FRANKLY Closer Pore Reducing Serum
 Benefits :
@@ -747,254 +1039,254 @@
 ✅improve skin texture</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>46.63072776280324</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>25.06738544474393</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>21.5633423180593</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>7.142857142857142</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7485059775911316758</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>752</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>184</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>145</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>48</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>haruharu wonder - Black Rice Probiotics Barrier Essence
 🥛I really like the milky texture. It provides intense hydration and a beautiful glow to my skin.</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>43.75</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>24.46808510638298</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>19.28191489361702</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>6.382978723404255</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7484675718459346198</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>661</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>171</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>167</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>44</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>🌾Rice Pepta Collagen Peel-Off wrapping Mask :
 Until I discovered this rice mask, we used to make it at home. Now it's much easier for me to use and lasts longer.</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>51.13464447806354</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>25.86989409984871</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>25.26475037821483</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>6.656580937972769</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/photo/7484609115029769494</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>680</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>132</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>31</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>#produsecoreene #produsedecalitate #yesstylecode #yesstyle #romania #italy #produsecosmetice #reduceri</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>19.41176470588236</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>19.41176470588236</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>4.558823529411764</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7484288334500515094</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>621</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>144</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>152</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>38</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Girls, let's do the challenge, scan the code and see what routine you have .@routines_byade</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>47.66505636070853</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>23.18840579710145</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>24.47665056360709</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>6.119162640901772</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7483562109289188630</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>774</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>190</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>200</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>44</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>🌿AXIS - Y - Complete No-Stress Physical Sunscreen :
 Benefits🌿 :
@@ -1002,52 +1294,52 @@
 🌿hyaluronic acid</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>50.3875968992248</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>24.54780361757106</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>25.83979328165374</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>5.684754521963824</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7482827679415258390</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>828</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>198</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>198</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>63</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>🌿Centellian24 - Madeca 2X Tightening Ampoule Pad
 🌿Key Ingredients:
@@ -1056,156 +1348,156 @@
 🌿Peptides, vitamins and collagen</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>47.82608695652174</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>23.91304347826087</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>23.91304347826087</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>7.608695652173914</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7482401943822863638</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>900</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>194</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>197</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>52</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>🧡Vita-Light Reedle Shot 100 : Benefits:
 🧡Boosts skincare absorption
 while targeting hyperpigmentation and contains vitamine C .</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>43.44444444444445</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>21.55555555555556</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>21.88888888888889</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>5.777777777777778</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7481707848678771990</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>738</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>192</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>209</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>50</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Yesstyle code : AGEOGIANA21
 5#% . @mixsoon_us
 #mixsoonskincareset_ys Double step cleansing (Bean Cleansing Oil + Centella Cleansing Foam)</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>54.33604336043361</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>26.01626016260163</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>28.31978319783198</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>6.775067750677506</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7481390711171042582</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>817</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>177</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>129</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>50</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Centellian24 - Madeca Cream🌿More Benefits:
 🌿 Improve wrinkles and fine lines
@@ -1213,52 +1505,52 @@
 🌿 Deep hydration</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>37.45410036719706</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>21.66462668298654</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>15.78947368421053</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>6.119951040391677</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7480964088886037782</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>695</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>169</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>173</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>50</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Centellian24 - Madeca Cream🌿More Benefits:
 🌿 Improve wrinkles and fine lines
@@ -1266,306 +1558,306 @@
 🌿 Deep hydration</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>49.20863309352518</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>24.31654676258993</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>24.89208633093525</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>7.194244604316546</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7480601562683804950</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>893</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>172</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>148</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>49</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Oil pulling is FAKE
 You can find them on yesstyle and buy them at a discount with my code AGEOGIANA21 5%.</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>35.83426651735722</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>19.26091825307951</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>16.57334826427772</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>5.487122060470324</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7480221814887615766</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>838</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>195</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>129</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>53</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>NACIFIC Rice Pepta Collagen Peel-Off Wrapping Mask :
 This mask improves skin elasticity and pore tightening.
 It has a pleasant texture and is very gentle on the skin.</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>38.66348448687351</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>23.26968973747017</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>15.39379474940334</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>6.324582338902148</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7479467662481886486</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>676</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>154</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>154</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>36</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Do you know these best Korean Skincare Products on Amazon, here are the products that you should tried at least once.</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>45.5621301775148</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>22.7810650887574</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>22.7810650887574</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>5.325443786982249</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7479099500041112854</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>908</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>154</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>154</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>36</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Do you know these best Korean Skincare Products on Amazon, here are the products that you should tried at least once.</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>33.92070484581498</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>16.96035242290749</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>16.96035242290749</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>3.964757709251101</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7478758551188524310</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>995</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>215</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>133</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>51</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>KAINE - Caffetinal Cream
 Contains 2% Caffeine and 300 ppm Retinal which helps reduce wrinkles and strengthens the skin barrier.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>34.9748743718593</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>21.60804020100502</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>13.36683417085427</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>5.125628140703518</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7478366299115228439</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>700</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>172</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>133</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>42</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>offerto da belif europe
 Belif Super drops - peptide firming serum :
@@ -1573,52 +1865,52 @@
 ✅helps improve pore condition, elasticity and skin barrier.</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>43.57142857142857</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>24.57142857142857</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>19</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>6</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7477953834426453270</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>1061</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>172</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>133</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>42</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>offerto da belif europe
 Belif Super drops - peptide firming serum :
@@ -1626,357 +1918,357 @@
 ✅helps improve pore condition, elasticity and skin barrier.</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>28.74646559849199</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>16.21112158341187</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>12.53534401508011</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>3.958529688972667</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/photo/7477953470834789654</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>583</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>167</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>160</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>43</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>iUNIK - Beta-Glucan 3X Barrier Cream this cream helps to intensely moisturize and strengthen skin barrier.</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>56.08919382504288</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>28.64493996569468</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>27.4442538593482</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>7.375643224699828</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7477642910691839254</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>765</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>150</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>138</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>36</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>B:Lab - Matcha Hydrating Foam Cleanser: Contains green tea and matcha extract which are antioxidant and soothes skin.</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>37.64705882352941</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>19.6078431372549</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>18.03921568627451</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>4.705882352941177</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7477159188330827030</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>612</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>66</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>11</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>#buzzbox #buzzboxromania #notino #bellbox #produsecosmetice #produsedecalitate</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>10.7843137254902</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>10.7843137254902</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>1.797385620915033</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7476877983848877334</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>742</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>177</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>162</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>40</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>SKINFOOD - Carrot Carotene Calming Water Pad :
 ❤️ The cotton pads are filled with moisturizing ingredients that help restore the skin barrier.These toner pads are so good at calming and soothing my skin. I really like that you can split a toner pad into 2 or 3.</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>45.68733153638814</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>23.8544474393531</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>21.83288409703504</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>5.390835579514826</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7476135982136298774</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>924</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>170</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>147</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>45</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Tosowoong Rice Glow Milky Toner :
 🌾 contains rice water, niacinamide and ceramides.
 🌾 helps fades dark spots</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>34.30735930735931</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>18.3982683982684</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>15.90909090909091</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>4.870129870129871</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7475761083261652246</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>708</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>141</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>136</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>41</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>My mom tried this Korean skincare mist and
 she said she love it,.. I want to try it too.
 This mist leave my skin so hydrated and smooth. Lov it.❤️</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>39.12429378531073</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>19.91525423728813</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>19.2090395480226</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>5.790960451977401</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7475429897540750614</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>752</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>169</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>147</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>51</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Just 7 days …
 😊
@@ -1984,52 +2276,52 @@
 #skincare #ksecret #skintok #kbeauty</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>42.02127659574468</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>22.47340425531915</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>19.54787234042553</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>6.781914893617021</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7475021063638977814</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>902</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>155</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>96</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>41</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>My lip care routine:
 🍓 Strawberry Sugar Food Mask Lip Scrub
@@ -2037,103 +2329,103 @@
 🍯 Honey Sugar Food Mask Lip Sleeping Pack</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>27.8270509977827</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>17.1840354767184</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>10.6430155210643</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>4.545454545454546</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/photo/7474939287486680342</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>899</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>144</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>144</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>35</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>you can find them on amazon and you have a 5% discount code until 28.2 code : 0505AMBFEB @coxir
 #coxir</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>32.03559510567297</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>16.01779755283648</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>16.01779755283648</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>3.89321468298109</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7474671843673263382</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>132</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>149</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>30</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>coxir - Black Rice TXA Pore Purifying Mask
 Key ingredients:
@@ -2143,889 +2435,635 @@
 ❤️This mask help cleanse away impurities and remove excess sebum and oil.</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>31.22222222222222</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>14.66666666666667</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>16.55555555555556</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7474273332624493846</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>616</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>146</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>48</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>27</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>#projectpan #emptiesproducts #emptiesreview #empties #viral_video #produsecoreene #produsedefata</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>31.49350649350649</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>23.7012987012987</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>7.792207792207792</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>4.383116883116883</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7473895248641461526</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>757</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>162</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>90</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>35</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>This is such a soft, creamy moisturizer that absorbs quickly without a greasy feeling, leaving my skin feeling soft and smooth.</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>33.2892998678996</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>21.4002642007926</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>11.889035667107</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>4.623513870541611</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7473213812829687062</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>751</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>141</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>118</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>31</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>My friends said that I should try this product so
 I decided to give it a shot and you can not believe the result after oneweek.</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>34.48735019973369</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>18.77496671105193</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>15.71238348868176</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>4.127829560585885</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7472814287187217686</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>732</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>156</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>161</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>33</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>AXIS - Y - Dark Spot Correcting Glow Serum helps clears up acne scars and redness.
 🌿improve skin texture
 🌿good for all skyn types</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>43.30601092896175</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>21.31147540983606</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>21.99453551912568</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>4.508196721311475</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7472423786298576150</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>1013</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>182</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>147</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>36</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>#CapCut
 @mixsoon_us #mixsoonskincareset_ys Double step cleansing (Bean Cleansing Oil + Centella Cleansing Foam)</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>32.47778874629812</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>17.96643632773939</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>14.51135241855874</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>3.553800592300099</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7472032315099729174</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>763</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>171</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>193</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>44</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Thank you so much @mimumimu.official .
 Review soon 🔜. ❤️
 #mimumimu #kbeauty #ugc #beauty #coreea</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>47.70642201834863</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>22.41153342070773</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>25.29488859764089</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>5.766710353866317</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7471297617490677014</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>776</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>178</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>88</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>36</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Mary&amp;May - Retinol 0.1% Bakuchiol Cica Serum Seoul Edition this serum contain pure retinol and gentle plant-based Bakuchiol.</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>34.27835051546392</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>22.93814432989691</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>11.34020618556701</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>4.639175257731959</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7470917551116078358</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>678</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>176</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>121</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>35</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>@skinfood_global @skinfood__influencers #skinfood #yesstyleinfluencers #yesstylereview #lips #lipscare</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>43.80530973451327</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>25.95870206489676</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>17.84660766961652</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>5.162241887905605</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/photo/7470849801073052950</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>496</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>185</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>94</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>32</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>@skinfood_global @skinfood__influencers #skinfood #yesstyleinfluencers #yesstylereview #lips #lipscare</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>56.25</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>37.29838709677419</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>18.95161290322581</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>6.451612903225806</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7470211049707490582</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>860</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>141</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>119</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>29</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>🧊Cell Fusion C - Cica Cooling Mask contains centella asiatica. I like the cooling effect, it feels really good on the skin. after I took off the mask, my skin was very hydrated and soothing. ❤️</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>30.23255813953488</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>16.3953488372093</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>13.83720930232558</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>3.372093023255814</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/photo/7470190705885891862</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>685</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>55</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>15</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>6</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>🧊Cell Fusion C - Cica Cooling Mask contains centella asiatica. I like the cooling effect, it feels really good on the skin. after I took off the mask, my skin was very hydrated and soothing. ❤️</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>10.21897810218978</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>8.02919708029197</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.18978102189781</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>0.8759124087591241</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@georgianaalexe97/video/7469845705104919830</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>652</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>162</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>88</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>34</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>#CapCut
 Cell Fusion C Laser SunScreen:
 If applied properly, it is absorbed quickly and you have longer protection. I like that it is water resistant and it seems perfect for the beach. 🏖️</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>38.34355828220859</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>24.84662576687117</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>13.49693251533742</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>5.214723926380368</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7469048886817000726</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>699</v>
-      </c>
-      <c r="C46" t="n">
-        <v>123</v>
-      </c>
-      <c r="D46" t="n">
-        <v>80</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>24</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Thank you so much @Skinkat ❤️💌🥹so happy .❤️💌
-#giveawaywinner #skincare #produsecosmetice</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>29.0414878397711</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17.59656652360515</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.44492131616595</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.433476394849786</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/photo/7468718201573002518</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>766</v>
-      </c>
-      <c r="C47" t="n">
-        <v>140</v>
-      </c>
-      <c r="D47" t="n">
-        <v>68</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>32</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Anua - Niacinamide 10 TXA 4 Serum it deeply hydrates the skin, calms and soothes, protects and strengthens the skin barrier .</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>27.15404699738904</v>
-      </c>
-      <c r="I47" t="n">
-        <v>18.27676240208877</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8.87728459530026</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.177545691906006</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7467973947821231382</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>688</v>
-      </c>
-      <c r="C48" t="n">
-        <v>140</v>
-      </c>
-      <c r="D48" t="n">
-        <v>76</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>31</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>My friends recommend me these products for
-Valentine Day so I have to try.
-💘 the SKIN HOUSE ultra collagen dewy&amp;glow ampoule mist : helps you improve your skin's elasticity. My skin feels more hydrated and bright after use. it has a pleasant smell.</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>31.3953488372093</v>
-      </c>
-      <c r="I48" t="n">
-        <v>20.34883720930232</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.04651162790698</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.505813953488372</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7467597040990555414</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1141</v>
-      </c>
-      <c r="C49" t="n">
-        <v>135</v>
-      </c>
-      <c r="D49" t="n">
-        <v>88</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>19</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>#makeup #produsedemakeup #makeupchallenge #produse #makeupnatural #fyp #viral_video #viralditiktok #romania</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>19.54425942156004</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11.83172655565293</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.712532865907098</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.665205959684487</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@georgianaalexe97/video/7467287122886757655</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>720</v>
-      </c>
-      <c r="C50" t="n">
-        <v>113</v>
-      </c>
-      <c r="D50" t="n">
-        <v>97</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>26</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>#CapCut
-Pyunkang Yul - Moisture Soothing Sun Cream contains centella asiatica that helps to calm the skin.</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>29.16666666666667</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15.69444444444444</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>13.47222222222222</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.611111111111111</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
         </is>
       </c>
     </row>
